--- a/J2EE Technologies.xlsx
+++ b/J2EE Technologies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="J2SE" sheetId="4" r:id="rId1"/>
@@ -1510,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A35:N186"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I60" sqref="A5:I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2640,11 +2640,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C137" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C166" sqref="C166"/>
+      <selection pane="bottomRight" activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/J2EE Technologies.xlsx
+++ b/J2EE Technologies.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="J2SE" sheetId="4" r:id="rId1"/>
     <sheet name="J2EE" sheetId="1" r:id="rId2"/>
+    <sheet name="Tomcat" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">J2EE!$A$1:$F$86</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="323">
   <si>
     <t>J2EE版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1058,6 +1059,72 @@
   </si>
   <si>
     <t>Method Parameter Reflection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet 4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP 2.3</t>
+  </si>
+  <si>
+    <t>JSP 2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL 3.0</t>
+  </si>
+  <si>
+    <t>EL 3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebSocket 1.1</t>
+  </si>
+  <si>
+    <t>WebSocket 1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JASPIC 1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet 3.1</t>
+  </si>
+  <si>
+    <t>Servlet 3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet 3.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP 2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL 2.2</t>
+  </si>
+  <si>
+    <t>8.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1510,7 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A35:N186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I60" sqref="A5:I60"/>
     </sheetView>
   </sheetViews>
@@ -2641,7 +2708,7 @@
   <dimension ref="A1:F158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C123" sqref="C123"/>
@@ -4209,4 +4276,139 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5"/>
+      <c r="B5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7"/>
+      <c r="B7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8"/>
+      <c r="B8" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9"/>
+      <c r="B9" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/J2EE Technologies.xlsx
+++ b/J2EE Technologies.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="J2SE" sheetId="4" r:id="rId1"/>
     <sheet name="J2EE" sheetId="1" r:id="rId2"/>
     <sheet name="Tomcat" sheetId="5" r:id="rId3"/>
+    <sheet name="lib" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">J2EE!$A$1:$F$86</definedName>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="399">
   <si>
     <t>J2EE版本</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -804,335 +806,787 @@
     <t>Monitoring</t>
   </si>
   <si>
+    <t>Scripting</t>
+  </si>
+  <si>
+    <t>JVM TI</t>
+  </si>
+  <si>
+    <t>Web Services</t>
+  </si>
+  <si>
+    <t>Deployment</t>
+  </si>
+  <si>
+    <t>Java Web Start</t>
+  </si>
+  <si>
+    <t>Applet / Java Plug-in</t>
+  </si>
+  <si>
+    <t>User Interface Toolkits</t>
+  </si>
+  <si>
+    <t>JavaFX</t>
+  </si>
+  <si>
+    <t>AWT</t>
+  </si>
+  <si>
+    <t>Swing</t>
+  </si>
+  <si>
+    <t>Java 2D</t>
+  </si>
+  <si>
+    <t>Accessibility</t>
+  </si>
+  <si>
+    <t>Drag and Drop</t>
+  </si>
+  <si>
+    <t>Input Methods</t>
+  </si>
+  <si>
+    <t>Image I/O</t>
+  </si>
+  <si>
+    <t>Print Service</t>
+  </si>
+  <si>
+    <t>Sound</t>
+  </si>
+  <si>
+    <t>Integration Libraries</t>
+  </si>
+  <si>
+    <t>JDBC</t>
+  </si>
+  <si>
+    <t>JNDI</t>
+  </si>
+  <si>
+    <t>RMI-IIOP</t>
+  </si>
+  <si>
+    <t>Other Base Libraries</t>
+  </si>
+  <si>
+    <t>Beans</t>
+  </si>
+  <si>
+    <t>Int'l Support</t>
+  </si>
+  <si>
+    <t>Input/Output</t>
+  </si>
+  <si>
+    <t>JMX</t>
+  </si>
+  <si>
+    <t>JNI</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Networking</t>
+  </si>
+  <si>
+    <t>Override Mechanism</t>
+  </si>
+  <si>
+    <t>Serialization</t>
+  </si>
+  <si>
+    <t>Extension Mechanism</t>
+  </si>
+  <si>
+    <t>XML JAXP</t>
+  </si>
+  <si>
+    <t>lang and util Base Libraries</t>
+  </si>
+  <si>
+    <t>lang and util</t>
+  </si>
+  <si>
+    <t>Collections</t>
+  </si>
+  <si>
+    <t>Concurrency Utilities</t>
+  </si>
+  <si>
+    <t>JAR</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Preferences API</t>
+  </si>
+  <si>
+    <t>Ref Objects</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>Versioning</t>
+  </si>
+  <si>
+    <t>Zip</t>
+  </si>
+  <si>
+    <t>Instrumentation</t>
+  </si>
+  <si>
+    <t>Java Virtual Machine</t>
+  </si>
+  <si>
+    <t>Java Hotspot Client and Server VM</t>
+  </si>
+  <si>
+    <t>9.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reference</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet 4.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP 2.3</t>
+  </si>
+  <si>
+    <t>JSP 2.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL 3.0</t>
+  </si>
+  <si>
+    <t>EL 3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WebSocket 1.1</t>
+  </si>
+  <si>
+    <t>WebSocket 1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JASPIC 1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet 3.1</t>
+  </si>
+  <si>
+    <t>Servlet 3.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Servlet 3.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JSP 2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EL 2.2</t>
+  </si>
+  <si>
+    <t>8.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monitoring and Management</t>
+  </si>
+  <si>
+    <t>Package Version Identification</t>
+  </si>
+  <si>
+    <t>Collections Framework</t>
+  </si>
+  <si>
+    <t>Java Language</t>
+  </si>
+  <si>
+    <t>Assertion Facility</t>
+  </si>
+  <si>
+    <t>Generics</t>
+  </si>
+  <si>
+    <t>Enhanced for Loop </t>
+  </si>
+  <si>
+    <t>Autoboxing/Unboxing</t>
+  </si>
+  <si>
+    <t>Typesafe Enums</t>
+  </si>
+  <si>
+    <t>Varargs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Static Import </t>
+  </si>
+  <si>
+    <t>Annotations</t>
+  </si>
+  <si>
+    <t>Binary Literals</t>
+  </si>
+  <si>
+    <t>Underscores in Numeric Literals</t>
+  </si>
+  <si>
+    <t>Strings in switch Statements</t>
+  </si>
+  <si>
+    <t>Type Inference for Generic Instance Creation</t>
+  </si>
+  <si>
+    <t>Improved Compiler Warnings and Errors When Using Non-Reifiable Formal Parameters with Varargs Methods</t>
+  </si>
+  <si>
+    <t>The try-with-resources Statement</t>
+  </si>
+  <si>
+    <t>Catching Multiple Exception Types and Rethrowing Exceptions with Improved Type Checking </t>
+  </si>
+  <si>
+    <t>Lambda Expressions</t>
+  </si>
+  <si>
+    <t>Method References</t>
+  </si>
+  <si>
+    <t>Default Methods </t>
+  </si>
+  <si>
+    <t>New and Enhanced APIs That Take Advantage of Lambda Expressions and Streams in Java SE 8</t>
+  </si>
+  <si>
+    <t>Improved Type Inference</t>
+  </si>
+  <si>
+    <t>Annotations on Java Types</t>
+  </si>
+  <si>
+    <t>Repeating Annotations</t>
+  </si>
+  <si>
+    <t>Method Parameter Reflection</t>
+  </si>
+  <si>
+    <t>Tools &amp; Tool APIs</t>
+  </si>
+  <si>
+    <t>javadoc</t>
+  </si>
+  <si>
+    <t>jar</t>
+  </si>
+  <si>
     <t>Troubleshoot</t>
-  </si>
-  <si>
-    <t>Scripting</t>
-  </si>
-  <si>
-    <t>JVM TI</t>
-  </si>
-  <si>
-    <t>Web Services</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>Java Web Start</t>
-  </si>
-  <si>
-    <t>Applet / Java Plug-in</t>
-  </si>
-  <si>
-    <t>User Interface Toolkits</t>
-  </si>
-  <si>
-    <t>JavaFX</t>
-  </si>
-  <si>
-    <t>AWT</t>
-  </si>
-  <si>
-    <t>Swing</t>
-  </si>
-  <si>
-    <t>Java 2D</t>
-  </si>
-  <si>
-    <t>Accessibility</t>
-  </si>
-  <si>
-    <t>Drag and Drop</t>
-  </si>
-  <si>
-    <t>Input Methods</t>
-  </si>
-  <si>
-    <t>Image I/O</t>
-  </si>
-  <si>
-    <t>Print Service</t>
-  </si>
-  <si>
-    <t>Sound</t>
-  </si>
-  <si>
-    <t>Integration Libraries</t>
-  </si>
-  <si>
-    <t>JDBC</t>
-  </si>
-  <si>
-    <t>JNDI</t>
-  </si>
-  <si>
-    <t>RMI-IIOP</t>
-  </si>
-  <si>
-    <t>Other Base Libraries</t>
-  </si>
-  <si>
-    <t>Beans</t>
-  </si>
-  <si>
-    <t>Int'l Support</t>
-  </si>
-  <si>
-    <t>Input/Output</t>
-  </si>
-  <si>
-    <t>JMX</t>
-  </si>
-  <si>
-    <t>JNI</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Networking</t>
-  </si>
-  <si>
-    <t>Override Mechanism</t>
-  </si>
-  <si>
-    <t>Serialization</t>
-  </si>
-  <si>
-    <t>Extension Mechanism</t>
-  </si>
-  <si>
-    <t>XML JAXP</t>
-  </si>
-  <si>
-    <t>lang and util Base Libraries</t>
-  </si>
-  <si>
-    <t>lang and util</t>
-  </si>
-  <si>
-    <t>Collections</t>
-  </si>
-  <si>
-    <t>Concurrency Utilities</t>
-  </si>
-  <si>
-    <t>JAR</t>
-  </si>
-  <si>
-    <t>Logging</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Preferences API</t>
-  </si>
-  <si>
-    <t>Ref Objects</t>
-  </si>
-  <si>
-    <t>Reflection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Regular Expressions</t>
-  </si>
-  <si>
-    <t>Versioning</t>
-  </si>
-  <si>
-    <t>Zip</t>
-  </si>
-  <si>
-    <t>Instrumentation</t>
-  </si>
-  <si>
-    <t>Java Virtual Machine</t>
-  </si>
-  <si>
-    <t>Java Hotspot Client and Server VM</t>
-  </si>
-  <si>
-    <t>Tools &amp; Tool APIs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>javadoc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>jar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Autoboxing/Unboxing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Static Import </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Annotations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java Language</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assertion Facility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Generics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enhanced for Loop </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Typesafe Enums</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Varargs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Binary Literals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Underscores in Numeric Literals</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Strings in switch Statements</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type Inference for Generic Instance Creation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Improved Compiler Warnings and Errors When Using Non-Reifiable Formal Parameters with Varargs Methods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The try-with-resources Statement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Catching Multiple Exception Types and Rethrowing Exceptions with Improved Type Checking </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lambda Expressions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method References</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Default Methods </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New and Enhanced APIs That Take Advantage of Lambda Expressions and Streams in Java SE 8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Improved Type Inference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Annotations on Java Types</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Repeating Annotations</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Method Parameter Reflection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reference</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Servlet 4.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSP 2.3</t>
-  </si>
-  <si>
-    <t>JSP 2.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EL 3.0</t>
-  </si>
-  <si>
-    <t>EL 3.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>WebSocket 1.1</t>
-  </si>
-  <si>
-    <t>WebSocket 1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JASPIC 1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Servlet 3.1</t>
-  </si>
-  <si>
-    <t>Servlet 3.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Servlet 3.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JSP 2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EL 2.2</t>
-  </si>
-  <si>
-    <t>8.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java.util.concurrent</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.atomic</t>
+  </si>
+  <si>
+    <t>java.util.jar</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Enhancements</t>
+  </si>
+  <si>
+    <t>More Information</t>
+  </si>
+  <si>
+    <t>java.lang Provides classes that are fundamental to the design of the Java programming language such as String, Math, and basic runtime support for threads and processes.</t>
+  </si>
+  <si>
+    <t>Java SE 5.0,</t>
+  </si>
+  <si>
+    <t>Java SE 1.4, and</t>
+  </si>
+  <si>
+    <t>Java SE 1.3</t>
+  </si>
+  <si>
+    <t>Location-Independent Access to Resources</t>
+  </si>
+  <si>
+    <t>Chained Exception Facility</t>
+  </si>
+  <si>
+    <t>java.lang.annotation Provides library support for the Java programming language annotation facility.</t>
+  </si>
+  <si>
+    <t>New in Java SE 5.0</t>
+  </si>
+  <si>
+    <t>Using Annotations</t>
+  </si>
+  <si>
+    <t>java.lang.instrument Provides services that allow Java programming language agents to instrument programs running on the JVM.</t>
+  </si>
+  <si>
+    <t>Java SE 6 and</t>
+  </si>
+  <si>
+    <t>Java SE 5.0</t>
+  </si>
+  <si>
+    <t>Instrumenting Applications</t>
+  </si>
+  <si>
+    <t>java.lang.management Provides the management interface for monitoring and management of the JVM as well as the operating system on which the JVM is running.</t>
+  </si>
+  <si>
+    <t>Java SE 6</t>
+  </si>
+  <si>
+    <t>java.lang.ref Provides reference-object classes, which support a limited degree of interaction with the garbage collector.</t>
+  </si>
+  <si>
+    <t>New in Java SE 1.3</t>
+  </si>
+  <si>
+    <t>No additional information</t>
+  </si>
+  <si>
+    <t>java.lang.reflect Provides classes and interfaces for obtaining reflective information about classes and objects.</t>
+  </si>
+  <si>
+    <t>Java SE 6,</t>
+  </si>
+  <si>
+    <t>Java SE 5.0, and</t>
+  </si>
+  <si>
+    <t>Java SE 1.4</t>
+  </si>
+  <si>
+    <t>Reflection APIs</t>
+  </si>
+  <si>
+    <t>java.util Provides the collections framework, formatted printing and scanning, array manipulation utilities, event model, date and time facilities, internationalization, and miscellaneous utility classes.</t>
+  </si>
+  <si>
+    <t>java.util.concurrent.locks Provides utility classes used in concurrent programming, including support for atomic updates of single variables and a locking framework which supplements language-level synchronization.</t>
+  </si>
+  <si>
+    <t>java.util.zip Provides classes for reading and writing the standard ZIP and GZIP file formats as well as the JAR (Java ARchive) file format, which is based on the standard ZIP file format with an optional manifest file.</t>
+  </si>
+  <si>
+    <t>Java Archive (JAR) Files</t>
+  </si>
+  <si>
+    <t>java.util.logging Provides support to maintain and service software at customer sites.</t>
+  </si>
+  <si>
+    <t>Java SE 5.0 and</t>
+  </si>
+  <si>
+    <t>Java Logging APIs</t>
+  </si>
+  <si>
+    <t>java.util.regex Provides classes for matching character sequences against patterns specified by regular expressions.</t>
+  </si>
+  <si>
+    <t>New in Java SE 1.4</t>
+  </si>
+  <si>
+    <t>Regular Expressions Tutorial</t>
+  </si>
+  <si>
+    <t>java.util.prefs Provides classes to store and retrieve user and system preference and configuration data.</t>
+  </si>
+  <si>
+    <t>java.util.spi Service provider classes for the java.util package.</t>
+  </si>
+  <si>
+    <t>New in Java SE 6</t>
+  </si>
+  <si>
+    <t>Collection interfaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General-purpose implementations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Legacy implementations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Special-purpose implementations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Concurrent implementations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wrapper implementations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convenience implementations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abstract implementations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infrastructure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array Utilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>InterfaceHash TableResizable ArrayBalanced TreeLinked ListHash Table + Linked List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Set</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF09569D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>HashSet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF09569D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>TreeSet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF09569D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LinkedHashSet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF09569D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ArrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF09569D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LinkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Deque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF09569D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>ArrayDeque</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF09569D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LinkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF444444"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>Map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF09569D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>HashMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF09569D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>TreeMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF09569D"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>LinkedHashMap</t>
+    </r>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Hash Table</t>
+  </si>
+  <si>
+    <t>Resizable Array</t>
+  </si>
+  <si>
+    <t>Balanced Tree</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>Hash Table + Linked List</t>
+  </si>
+  <si>
+    <t>Set</t>
+  </si>
+  <si>
+    <t>HashSet</t>
+  </si>
+  <si>
+    <t>TreeSet</t>
+  </si>
+  <si>
+    <t>LinkedHashSet</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>ArrayList</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Deque</t>
+  </si>
+  <si>
+    <t>ArrayDeque</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <t>TreeMap</t>
+  </si>
+  <si>
+    <t>LinkedHashMap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1179,8 +1633,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF09569D"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1193,13 +1659,34 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1212,7 +1699,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1228,14 +1715,26 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1258,7 +1757,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>3025140</xdr:colOff>
+      <xdr:colOff>1249680</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>109195</xdr:rowOff>
     </xdr:to>
@@ -1575,1131 +2074,551 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A35:N186"/>
+  <dimension ref="A32:E128"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I60" sqref="A5:I60"/>
+    <sheetView topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106:I110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="31.77734375" customWidth="1"/>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="34.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="35" spans="1:14" s="7" customFormat="1">
-      <c r="A35" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="C35" s="6">
+    <row r="32" spans="1:2" s="6" customFormat="1">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>297</v>
+      </c>
+      <c r="C33">
         <v>1.4</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" s="7" customFormat="1">
-      <c r="A36" s="6"/>
-      <c r="C36" s="6">
+      <c r="D33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="C34">
         <v>1.5</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" s="7" customFormat="1">
-      <c r="A37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" s="7" customFormat="1">
-      <c r="A38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="7" customFormat="1">
-      <c r="A39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" s="7" customFormat="1">
-      <c r="A40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" s="7" customFormat="1">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-    </row>
-    <row r="42" spans="1:14" s="7" customFormat="1">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-    </row>
-    <row r="43" spans="1:14" s="7" customFormat="1">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6">
+      <c r="D34" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="D35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="D36" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="D37" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="D38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="D39" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="D40" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41">
         <v>1.6</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-    </row>
-    <row r="44" spans="1:14" s="7" customFormat="1">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6">
+    </row>
+    <row r="42" spans="1:4">
+      <c r="C42">
         <v>1.7</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-    </row>
-    <row r="45" spans="1:14" s="7" customFormat="1">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="1:14" s="7" customFormat="1">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-    </row>
-    <row r="47" spans="1:14" s="7" customFormat="1">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="1:14" s="7" customFormat="1">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="1:14" s="7" customFormat="1">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="1:14" s="7" customFormat="1">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-    </row>
-    <row r="51" spans="1:14" s="7" customFormat="1">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6">
+      <c r="D42" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="D43" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="D44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="D45" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="D46" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="D47" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="D48" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="C49">
         <v>1.8</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="1:14" s="7" customFormat="1">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-    </row>
-    <row r="53" spans="1:14" s="7" customFormat="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-    </row>
-    <row r="54" spans="1:14" s="7" customFormat="1">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-    </row>
-    <row r="55" spans="1:14" s="7" customFormat="1">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-    </row>
-    <row r="56" spans="1:14" s="7" customFormat="1">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-    </row>
-    <row r="57" spans="1:14" s="7" customFormat="1">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-    </row>
-    <row r="58" spans="1:14" s="7" customFormat="1">
-      <c r="A58" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B58" s="6" t="s">
+      <c r="D49" t="s">
+        <v>313</v>
+      </c>
+      <c r="E49" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="E50" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="E51" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="D52" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="D53" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="D54" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="D55" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>321</v>
+      </c>
+      <c r="B56" t="s">
         <v>215</v>
       </c>
-      <c r="C58" s="6"/>
-    </row>
-    <row r="59" spans="1:14" s="7" customFormat="1">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6" t="s">
+    </row>
+    <row r="57" spans="1:5">
+      <c r="B57" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="60" spans="1:14" s="7" customFormat="1">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" s="7" customFormat="1">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" s="7" customFormat="1">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6" t="s">
+    <row r="58" spans="1:5">
+      <c r="B58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="63" spans="1:14" s="7" customFormat="1">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6" t="s">
+    <row r="61" spans="1:5">
+      <c r="B61" t="s">
         <v>218</v>
       </c>
-      <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:14" s="7" customFormat="1">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6" t="s">
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:2" s="7" customFormat="1">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6" t="s">
+    <row r="63" spans="1:5">
+      <c r="B63" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="66" spans="1:2" s="7" customFormat="1">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6" t="s">
+    <row r="64" spans="1:5">
+      <c r="B64" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="67" spans="1:2" s="7" customFormat="1">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6" t="s">
+    <row r="65" spans="1:2">
+      <c r="B65" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="68" spans="1:2" s="7" customFormat="1">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6" t="s">
+    <row r="66" spans="1:2">
+      <c r="B66" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="69" spans="1:2" s="7" customFormat="1">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6" t="s">
+    <row r="67" spans="1:2">
+      <c r="B67" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="70" spans="1:2" s="7" customFormat="1">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6" t="s">
+    <row r="68" spans="1:2">
+      <c r="B68" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="71" spans="1:2" s="7" customFormat="1">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6" t="s">
+    <row r="69" spans="1:2">
+      <c r="B69" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="72" spans="1:2" s="7" customFormat="1">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6" t="s">
+    <row r="70" spans="1:2">
+      <c r="B70" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="73" spans="1:2" s="7" customFormat="1">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6" t="s">
+    <row r="71" spans="1:2">
+      <c r="B71" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="B72" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="74" spans="1:2" s="7" customFormat="1">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6" t="s">
+    <row r="73" spans="1:2">
+      <c r="B73" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="75" spans="1:2" s="7" customFormat="1">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6" t="s">
+    <row r="74" spans="1:2">
+      <c r="B74" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="76" spans="1:2" s="7" customFormat="1">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" s="7" customFormat="1">
-      <c r="A77" s="6" t="s">
+      <c r="B75" t="s">
         <v>232</v>
       </c>
-      <c r="B77" s="6" t="s">
+    </row>
+    <row r="76" spans="1:2">
+      <c r="B76" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="78" spans="1:2" s="7" customFormat="1">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" s="7" customFormat="1">
-      <c r="A79" s="6" t="s">
+      <c r="B77" t="s">
         <v>235</v>
       </c>
-      <c r="B79" s="6" t="s">
+    </row>
+    <row r="78" spans="1:2">
+      <c r="B78" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:2" s="7" customFormat="1">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6" t="s">
+    <row r="79" spans="1:2">
+      <c r="B79" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:2" s="7" customFormat="1">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6" t="s">
+    <row r="80" spans="1:2">
+      <c r="B80" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="82" spans="1:2" s="7" customFormat="1">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6" t="s">
+    <row r="81" spans="1:2">
+      <c r="B81" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:2" s="7" customFormat="1">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6" t="s">
+    <row r="82" spans="1:2">
+      <c r="B82" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="84" spans="1:2" s="7" customFormat="1">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6" t="s">
+    <row r="83" spans="1:2">
+      <c r="B83" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="85" spans="1:2" s="7" customFormat="1">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6" t="s">
+    <row r="84" spans="1:2">
+      <c r="B84" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="86" spans="1:2" s="7" customFormat="1">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6" t="s">
+    <row r="85" spans="1:2">
+      <c r="B85" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="1:2" s="7" customFormat="1">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6" t="s">
+    <row r="86" spans="1:2">
+      <c r="B86" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="88" spans="1:2" s="7" customFormat="1">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" s="7" customFormat="1">
-      <c r="A89" s="6" t="s">
+      <c r="B87" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="B88" t="s">
         <v>246</v>
       </c>
-      <c r="B89" s="6" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" s="7" customFormat="1">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6" t="s">
+    </row>
+    <row r="89" spans="1:2">
+      <c r="B89" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="91" spans="1:2" s="7" customFormat="1">
-      <c r="A91" s="6"/>
-      <c r="B91" s="6" t="s">
+    <row r="90" spans="1:2">
+      <c r="B90" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="B91" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="92" spans="1:2" s="7" customFormat="1">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" s="7" customFormat="1">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6" t="s">
+    <row r="92" spans="1:2">
+      <c r="B92" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" s="7" customFormat="1">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" s="7" customFormat="1">
-      <c r="A95" s="6" t="s">
+      <c r="B93" t="s">
         <v>250</v>
       </c>
-      <c r="B95" s="6" t="s">
+    </row>
+    <row r="94" spans="1:2">
+      <c r="B94" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="96" spans="1:2" s="7" customFormat="1">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6" t="s">
+    <row r="95" spans="1:2">
+      <c r="B95" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="97" spans="1:2" s="7" customFormat="1">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6" t="s">
+    <row r="96" spans="1:2">
+      <c r="B96" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="98" spans="1:2" s="7" customFormat="1">
-      <c r="A98" s="6"/>
-      <c r="B98" s="6" t="s">
+    <row r="97" spans="1:3">
+      <c r="B97" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="99" spans="1:2" s="7" customFormat="1">
-      <c r="A99" s="6"/>
-      <c r="B99" s="6" t="s">
+    <row r="98" spans="1:3">
+      <c r="B98" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="100" spans="1:2" s="7" customFormat="1">
-      <c r="A100" s="6"/>
-      <c r="B100" s="6" t="s">
+    <row r="99" spans="1:3">
+      <c r="B99" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="101" spans="1:2" s="7" customFormat="1">
-      <c r="A101" s="6"/>
-      <c r="B101" s="6" t="s">
+    <row r="100" spans="1:3">
+      <c r="B100" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="102" spans="1:2" s="7" customFormat="1">
-      <c r="A102" s="6"/>
-      <c r="B102" s="6" t="s">
+    <row r="101" spans="1:3">
+      <c r="B101" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="B102" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="103" spans="1:2" s="7" customFormat="1">
-      <c r="A103" s="6"/>
-      <c r="B103" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" s="7" customFormat="1">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6" t="s">
+    <row r="103" spans="1:3">
+      <c r="B103" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="105" spans="1:2" s="7" customFormat="1">
-      <c r="A105" s="6"/>
-      <c r="B105" s="6" t="s">
+    <row r="104" spans="1:3">
+      <c r="B104" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="106" spans="1:2" s="7" customFormat="1">
-      <c r="A106" s="6"/>
-      <c r="B106" s="6" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" s="7" customFormat="1">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6" t="s">
+      <c r="B105" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="108" spans="1:2" s="7" customFormat="1">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6" t="s">
+    <row r="106" spans="1:3">
+      <c r="B106" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" s="7" customFormat="1">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6" t="s">
+      <c r="C106" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="C107" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="C108" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="C109" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="C110" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="C111" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="C112" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="C113" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="C114" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="C115" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="C116" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="B117" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="110" spans="1:2" s="7" customFormat="1">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6" t="s">
+    <row r="118" spans="1:3">
+      <c r="B118" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="7" customFormat="1">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6" t="s">
+    <row r="119" spans="1:3">
+      <c r="B119" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="112" spans="1:2" s="7" customFormat="1">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6" t="s">
+    <row r="120" spans="1:3">
+      <c r="B120" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="113" spans="1:2" s="7" customFormat="1">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6" t="s">
+    <row r="121" spans="1:3">
+      <c r="B121" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="7" customFormat="1">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6" t="s">
+    <row r="122" spans="1:3">
+      <c r="B122" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="115" spans="1:2" s="7" customFormat="1">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6" t="s">
+    <row r="123" spans="1:3">
+      <c r="B123" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="116" spans="1:2" s="7" customFormat="1">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6" t="s">
+    <row r="124" spans="1:3">
+      <c r="B124" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="B125" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="117" spans="1:2" s="7" customFormat="1">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6" t="s">
+    <row r="126" spans="1:3">
+      <c r="B126" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="118" spans="1:2" s="7" customFormat="1">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6" t="s">
+    <row r="127" spans="1:3">
+      <c r="B127" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="119" spans="1:2" s="7" customFormat="1">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6" t="s">
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" s="7" customFormat="1">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6" t="s">
+      <c r="B128" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" s="7" customFormat="1">
-      <c r="A121" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" s="7" customFormat="1">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
-    </row>
-    <row r="123" spans="1:2" s="7" customFormat="1">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
-    </row>
-    <row r="124" spans="1:2" s="7" customFormat="1">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
-    </row>
-    <row r="125" spans="1:2" s="7" customFormat="1">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
-    </row>
-    <row r="126" spans="1:2" s="7" customFormat="1">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="5"/>
-      <c r="B127" s="5"/>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="5"/>
-      <c r="B128" s="5"/>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="5"/>
-      <c r="B129" s="5"/>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" s="5"/>
-      <c r="B130" s="5"/>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="5"/>
-      <c r="B132" s="5"/>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="5"/>
-      <c r="B135" s="5"/>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="5"/>
-      <c r="B137" s="5"/>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="5"/>
-      <c r="B138" s="5"/>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="5"/>
-      <c r="B139" s="5"/>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="5"/>
-      <c r="B140" s="5"/>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="5"/>
-      <c r="B141" s="5"/>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" s="5"/>
-      <c r="B142" s="5"/>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" s="5"/>
-      <c r="B143" s="5"/>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="5"/>
-      <c r="B144" s="5"/>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="5"/>
-      <c r="B145" s="5"/>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="5"/>
-      <c r="B146" s="5"/>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="5"/>
-      <c r="B147" s="5"/>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="5"/>
-      <c r="B148" s="5"/>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="5"/>
-      <c r="B149" s="5"/>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="5"/>
-      <c r="B150" s="5"/>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="5"/>
-      <c r="B151" s="5"/>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="5"/>
-      <c r="B152" s="5"/>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="5"/>
-      <c r="B153" s="5"/>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="5"/>
-      <c r="B154" s="5"/>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="5"/>
-      <c r="B155" s="5"/>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="5"/>
-      <c r="B156" s="5"/>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="5"/>
-      <c r="B157" s="5"/>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="5"/>
-      <c r="B158" s="5"/>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="5"/>
-      <c r="B159" s="5"/>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="5"/>
-      <c r="B160" s="5"/>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="5"/>
-      <c r="B161" s="5"/>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="5"/>
-      <c r="B162" s="5"/>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="5"/>
-      <c r="B163" s="5"/>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="5"/>
-      <c r="B164" s="5"/>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="5"/>
-      <c r="B165" s="5"/>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="5"/>
-      <c r="B166" s="5"/>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="5"/>
-      <c r="B167" s="5"/>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="5"/>
-      <c r="B168" s="5"/>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="5"/>
-      <c r="B169" s="5"/>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="5"/>
-      <c r="B170" s="5"/>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="5"/>
-      <c r="B171" s="5"/>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="5"/>
-      <c r="B172" s="5"/>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="5"/>
-      <c r="B173" s="5"/>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="5"/>
-      <c r="B174" s="5"/>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="5"/>
-      <c r="B175" s="5"/>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="5"/>
-      <c r="B176" s="5"/>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="5"/>
-      <c r="B177" s="5"/>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="5"/>
-      <c r="B178" s="5"/>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="5"/>
-      <c r="B179" s="5"/>
-    </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="5"/>
-      <c r="B180" s="5"/>
-    </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="5"/>
-      <c r="B181" s="5"/>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="5"/>
-      <c r="B182" s="5"/>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="5"/>
-      <c r="B183" s="5"/>
-    </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="5"/>
-      <c r="B184" s="5"/>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="5"/>
-      <c r="B185" s="5"/>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="5"/>
-      <c r="B186" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B121" r:id="rId1" display="https://docs.oracle.com/javase/8/docs/technotes/guides/vm/index.html"/>
-    <hyperlink ref="A121" r:id="rId2" display="https://docs.oracle.com/javase/8/docs/technotes/guides/vm/index.html"/>
-    <hyperlink ref="B120" r:id="rId3" display="https://docs.oracle.com/javase/8/docs/technotes/guides/instrumentation/index.html"/>
-    <hyperlink ref="B119" r:id="rId4" display="https://docs.oracle.com/javase/8/docs/api/java/util/zip/package-summary.html"/>
-    <hyperlink ref="B118" r:id="rId5" display="https://docs.oracle.com/javase/8/docs/technotes/guides/versioning/index.html"/>
-    <hyperlink ref="B117" r:id="rId6" display="https://docs.oracle.com/javase/8/docs/api/java/util/regex/package-summary.html"/>
-    <hyperlink ref="B116" r:id="rId7" display="https://docs.oracle.com/javase/8/docs/technotes/guides/reflection/index.html"/>
-    <hyperlink ref="B115" r:id="rId8" display="https://docs.oracle.com/javase/8/docs/api/java/lang/ref/package-summary.html"/>
-    <hyperlink ref="B114" r:id="rId9" display="https://docs.oracle.com/javase/8/docs/technotes/guides/preferences/index.html"/>
-    <hyperlink ref="B113" r:id="rId10" display="https://docs.oracle.com/javase/8/docs/technotes/guides/management/index.html"/>
-    <hyperlink ref="B112" r:id="rId11" display="https://docs.oracle.com/javase/8/docs/technotes/guides/logging/index.html"/>
-    <hyperlink ref="B111" r:id="rId12" display="https://docs.oracle.com/javase/8/docs/technotes/guides/jar/index.html"/>
-    <hyperlink ref="B110" r:id="rId13" display="https://docs.oracle.com/javase/8/docs/technotes/guides/concurrency/index.html"/>
-    <hyperlink ref="B109" r:id="rId14" display="https://docs.oracle.com/javase/8/docs/technotes/guides/collections/index.html"/>
-    <hyperlink ref="B108" r:id="rId15" display="https://docs.oracle.com/javase/8/docs/technotes/guides/lang/index.html"/>
-    <hyperlink ref="B107" r:id="rId16" location="langutil" display="https://docs.oracle.com/javase/8/docs/technotes/guides/index.html - langutil"/>
-    <hyperlink ref="B106" r:id="rId17" display="https://docs.oracle.com/javase/8/docs/technotes/guides/xml/index.html"/>
-    <hyperlink ref="B105" r:id="rId18" display="https://docs.oracle.com/javase/8/docs/technotes/guides/extensions/index.html"/>
-    <hyperlink ref="B104" r:id="rId19" display="https://docs.oracle.com/javase/8/docs/technotes/guides/serialization/index.html"/>
-    <hyperlink ref="B103" r:id="rId20" display="https://docs.oracle.com/javase/8/docs/technotes/guides/security/index.html"/>
-    <hyperlink ref="B102" r:id="rId21" display="https://docs.oracle.com/javase/8/docs/technotes/guides/standards/index.html"/>
-    <hyperlink ref="B101" r:id="rId22" display="https://docs.oracle.com/javase/8/docs/technotes/guides/net/index.html"/>
-    <hyperlink ref="B100" r:id="rId23" display="https://docs.oracle.com/javase/8/docs/technotes/guides/math/index.html"/>
-    <hyperlink ref="B99" r:id="rId24" display="https://docs.oracle.com/javase/8/docs/technotes/guides/jni/index.html"/>
-    <hyperlink ref="B98" r:id="rId25" display="https://docs.oracle.com/javase/8/docs/technotes/guides/jmx/index.html"/>
-    <hyperlink ref="B97" r:id="rId26" display="https://docs.oracle.com/javase/8/docs/technotes/guides/io/index.html"/>
-    <hyperlink ref="B96" r:id="rId27" display="https://docs.oracle.com/javase/8/docs/technotes/guides/intl/index.html"/>
-    <hyperlink ref="B95" r:id="rId28" display="https://docs.oracle.com/javase/8/docs/technotes/guides/beans/index.html"/>
-    <hyperlink ref="A95" r:id="rId29" location="otherbase" display="https://docs.oracle.com/javase/8/docs/technotes/guides/index.html - otherbase"/>
-    <hyperlink ref="B94" r:id="rId30" display="https://docs.oracle.com/javase/8/docs/technotes/guides/scripting/index.html"/>
-    <hyperlink ref="B93" r:id="rId31" display="https://docs.oracle.com/javase/8/docs/technotes/guides/rmi-iiop/index.html"/>
-    <hyperlink ref="B92" r:id="rId32" display="https://docs.oracle.com/javase/8/docs/technotes/guides/rmi/index.html"/>
-    <hyperlink ref="B91" r:id="rId33" display="https://docs.oracle.com/javase/8/docs/technotes/guides/jndi/index.html"/>
-    <hyperlink ref="B90" r:id="rId34" display="https://docs.oracle.com/javase/8/docs/technotes/guides/jdbc/index.html"/>
-    <hyperlink ref="B89" r:id="rId35" display="https://docs.oracle.com/javase/8/docs/technotes/guides/idl/index.html"/>
-    <hyperlink ref="A89" r:id="rId36" location="integration" display="https://docs.oracle.com/javase/8/docs/technotes/guides/index.html - integration"/>
-    <hyperlink ref="B88" r:id="rId37" display="https://docs.oracle.com/javase/8/docs/technotes/guides/sound/index.html"/>
-    <hyperlink ref="B87" r:id="rId38" display="https://docs.oracle.com/javase/8/docs/technotes/guides/jps/index.html"/>
-    <hyperlink ref="B86" r:id="rId39" display="https://docs.oracle.com/javase/8/docs/technotes/guides/imageio/index.html"/>
-    <hyperlink ref="B85" r:id="rId40" display="https://docs.oracle.com/javase/8/docs/technotes/guides/imf/index.html"/>
-    <hyperlink ref="B84" r:id="rId41" display="https://docs.oracle.com/javase/8/docs/technotes/guides/dragndrop/index.html"/>
-    <hyperlink ref="B83" r:id="rId42" display="https://docs.oracle.com/javase/8/docs/technotes/guides/access/index.html"/>
-    <hyperlink ref="B82" r:id="rId43" display="https://docs.oracle.com/javase/8/docs/technotes/guides/2d/index.html"/>
-    <hyperlink ref="B81" r:id="rId44" display="https://docs.oracle.com/javase/8/docs/technotes/guides/swing/index.html"/>
-    <hyperlink ref="B80" r:id="rId45" display="https://docs.oracle.com/javase/8/docs/technotes/guides/awt/index.html"/>
-    <hyperlink ref="B79" r:id="rId46" display="https://docs.oracle.com/javase/8/docs/technotes/guides/javafx/"/>
-    <hyperlink ref="A79" r:id="rId47" location="userinterface" display="https://docs.oracle.com/javase/8/docs/technotes/guides/index.html - userinterface"/>
-    <hyperlink ref="B78" r:id="rId48" display="https://docs.oracle.com/javase/8/docs/technotes/guides/deploy/applet_dev_guide.html"/>
-    <hyperlink ref="B77" r:id="rId49" display="https://docs.oracle.com/javase/8/docs/technotes/guides/javaws/index.html"/>
-    <hyperlink ref="A77" r:id="rId50" display="https://docs.oracle.com/javase/8/docs/technotes/guides/deploy/index.html"/>
-    <hyperlink ref="B76" r:id="rId51" location="webservices" display="https://docs.oracle.com/javase/8/docs/technotes/tools/index.html - webservices"/>
-    <hyperlink ref="B75" r:id="rId52" display="https://docs.oracle.com/javase/8/docs/technotes/guides/jvmti/index.html"/>
-    <hyperlink ref="B74" r:id="rId53" location="scripting" display="https://docs.oracle.com/javase/8/docs/technotes/tools/index.html - scripting"/>
-    <hyperlink ref="B73" r:id="rId54" location="troubleshoot" display="https://docs.oracle.com/javase/8/docs/technotes/tools/index.html - troubleshoot"/>
-    <hyperlink ref="B72" r:id="rId55" location="monitor" display="https://docs.oracle.com/javase/8/docs/technotes/tools/index.html - monitor"/>
-    <hyperlink ref="B71" r:id="rId56" location="deployment" display="https://docs.oracle.com/javase/8/docs/technotes/tools/index.html - deployment"/>
-    <hyperlink ref="B70" r:id="rId57" location="idl" display="https://docs.oracle.com/javase/8/docs/technotes/tools/index.html - idl"/>
-    <hyperlink ref="B69" r:id="rId58" location="rmi" display="https://docs.oracle.com/javase/8/docs/technotes/tools/index.html - rmi"/>
-    <hyperlink ref="B68" r:id="rId59" location="intl" display="https://docs.oracle.com/javase/8/docs/technotes/tools/index.html - intl"/>
-    <hyperlink ref="B67" r:id="rId60" location="security" display="https://docs.oracle.com/javase/8/docs/technotes/tools/index.html - security"/>
-    <hyperlink ref="B66" r:id="rId61" display="http://docs.oracle.com/javadb/index_jdk8.html"/>
-    <hyperlink ref="B65" r:id="rId62" display="https://docs.oracle.com/javase/8/docs/technotes/guides/visualvm/index.html"/>
-    <hyperlink ref="B64" r:id="rId63" location="jconsole" display="https://docs.oracle.com/javase/8/docs/technotes/tools/index.html - jconsole"/>
-    <hyperlink ref="B63" r:id="rId64" display="https://docs.oracle.com/javase/8/docs/technotes/guides/jpda/index.html"/>
-    <hyperlink ref="B62" r:id="rId65" display="https://docs.oracle.com/javase/8/docs/technotes/tools/windows/javap.html"/>
-    <hyperlink ref="B61" r:id="rId66" display="https://docs.oracle.com/javase/8/docs/technotes/guides/jar/index.html"/>
-    <hyperlink ref="B60" r:id="rId67" display="https://docs.oracle.com/javase/8/docs/technotes/guides/javadoc/index.html"/>
-    <hyperlink ref="B59" r:id="rId68" display="https://docs.oracle.com/javase/8/docs/technotes/guides/javac/index.html"/>
-    <hyperlink ref="B58" r:id="rId69" display="https://docs.oracle.com/javase/8/docs/technotes/tools/windows/java.html"/>
-    <hyperlink ref="A58" r:id="rId70" display="https://docs.oracle.com/javase/8/docs/technotes/tools/index.html"/>
-    <hyperlink ref="A35" r:id="rId71" display="https://docs.oracle.com/javase/8/docs/technotes/guides/language/index.html"/>
-    <hyperlink ref="D35" r:id="rId72" display="https://docs.oracle.com/javase/8/docs/technotes/guides/language/assert.html"/>
-    <hyperlink ref="D36" r:id="rId73" display="https://docs.oracle.com/javase/8/docs/technotes/guides/language/generics.html"/>
-    <hyperlink ref="D37" r:id="rId74" display="https://docs.oracle.com/javase/8/docs/technotes/guides/language/foreach.html"/>
-    <hyperlink ref="D39" r:id="rId75" display="https://docs.oracle.com/javase/8/docs/technotes/guides/language/enums.html"/>
-    <hyperlink ref="D40" r:id="rId76" display="https://docs.oracle.com/javase/8/docs/technotes/guides/language/varargs.html"/>
-    <hyperlink ref="D44" r:id="rId77" display="https://docs.oracle.com/javase/8/docs/technotes/guides/language/binary-literals.html"/>
-    <hyperlink ref="D45" r:id="rId78" display="https://docs.oracle.com/javase/8/docs/technotes/guides/language/underscores-literals.html"/>
-    <hyperlink ref="D46" r:id="rId79" display="https://docs.oracle.com/javase/8/docs/technotes/guides/language/strings-switch.html"/>
-    <hyperlink ref="D47" r:id="rId80" display="https://docs.oracle.com/javase/8/docs/technotes/guides/language/type-inference-generic-instance-creation.html"/>
-    <hyperlink ref="D48" r:id="rId81" display="https://docs.oracle.com/javase/8/docs/technotes/guides/language/non-reifiable-varargs.html"/>
-    <hyperlink ref="D49" r:id="rId82" display="https://docs.oracle.com/javase/8/docs/technotes/guides/language/try-with-resources.html"/>
-    <hyperlink ref="D50" r:id="rId83" display="https://docs.oracle.com/javase/8/docs/technotes/guides/language/catch-multiple.html"/>
-    <hyperlink ref="D51" r:id="rId84" display="http://docs.oracle.com/javase/tutorial/java/javaOO/lambdaexpressions.html"/>
-    <hyperlink ref="E51" r:id="rId85" display="http://docs.oracle.com/javase/tutorial/java/javaOO/methodreferences.html"/>
-    <hyperlink ref="E52" r:id="rId86" display="http://docs.oracle.com/javase/tutorial/java/IandI/defaultmethods.html"/>
-    <hyperlink ref="E53" r:id="rId87" display="https://docs.oracle.com/javase/8/docs/technotes/guides/language/lambda_api_jdk8.html"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId88"/>
-  <drawing r:id="rId89"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2708,10 +2627,10 @@
   <dimension ref="A1:F158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C123" sqref="C123"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4282,8 +4201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4297,113 +4216,113 @@
         <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>320</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>321</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5"/>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>322</v>
+        <v>293</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7"/>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8"/>
       <c r="B8" t="s">
-        <v>310</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9"/>
       <c r="B9" t="s">
-        <v>312</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="B15" t="s">
-        <v>307</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>311</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4411,4 +4330,428 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="86.88671875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.88671875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="7"/>
+    <col min="5" max="5" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="28.8">
+      <c r="A2" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.8">
+      <c r="A6" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="28.8">
+      <c r="A8" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.8">
+      <c r="A10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8">
+      <c r="A12" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8">
+      <c r="A13" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="43.2">
+      <c r="A16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="43.2">
+      <c r="A21" s="7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="43.2">
+      <c r="A23" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8">
+      <c r="A24" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8">
+      <c r="A26" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.8">
+      <c r="A28" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" t="s">
+        <v>382</v>
+      </c>
+      <c r="D6" t="s">
+        <v>383</v>
+      </c>
+      <c r="E6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F6" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B7" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E8" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>393</v>
+      </c>
+      <c r="C9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E9" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B10" t="s">
+        <v>396</v>
+      </c>
+      <c r="D10" t="s">
+        <v>397</v>
+      </c>
+      <c r="F10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/J2EE Technologies.xlsx
+++ b/J2EE Technologies.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="J2SE" sheetId="4" r:id="rId1"/>
@@ -1035,9 +1035,6 @@
   </si>
   <si>
     <t>Enhanced for Loop </t>
-  </si>
-  <si>
-    <t>Autoboxing/Unboxing</t>
   </si>
   <si>
     <t>Typesafe Enums</t>
@@ -1581,6 +1578,10 @@
   <si>
     <t>LinkedHashMap</t>
   </si>
+  <si>
+    <t>Autoboxing/Unboxing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1743,6 +1744,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1769,7 +1838,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1797,7 +1866,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2076,16 +2145,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A32:E128"/>
   <sheetViews>
-    <sheetView topLeftCell="B85" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106:I110"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="34.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.75" customWidth="1"/>
+    <col min="2" max="2" width="36.625" customWidth="1"/>
+    <col min="3" max="3" width="34.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="32" spans="1:2" s="6" customFormat="1">
@@ -2118,27 +2187,27 @@
     </row>
     <row r="36" spans="1:4">
       <c r="D36" t="s">
-        <v>301</v>
+        <v>398</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="D37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="D38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="D39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="D40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2151,37 +2220,37 @@
         <v>1.7</v>
       </c>
       <c r="D42" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="D43" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="D44" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="D45" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="D46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="D47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="D48" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2189,45 +2258,45 @@
         <v>1.8</v>
       </c>
       <c r="D49" t="s">
+        <v>312</v>
+      </c>
+      <c r="E49" t="s">
         <v>313</v>
-      </c>
-      <c r="E49" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="E50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="E51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="D52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="D53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="D54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="D55" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B56" t="s">
         <v>215</v>
@@ -2240,12 +2309,12 @@
     </row>
     <row r="58" spans="1:5">
       <c r="B58" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="B59" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2305,7 +2374,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="B71" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -2498,57 +2567,57 @@
         <v>263</v>
       </c>
       <c r="C106" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="C107" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="C108" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="C109" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="C110" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="C111" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="C112" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="C113" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="C114" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="C115" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="C116" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2588,7 +2657,7 @@
     </row>
     <row r="124" spans="1:3">
       <c r="B124" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2633,17 +2702,17 @@
       <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="81.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="2"/>
-    <col min="6" max="6" width="12.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="2"/>
+    <col min="6" max="6" width="12.875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19.2">
+    <row r="1" spans="1:6" ht="19.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3583,7 +3652,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="14.4" customHeight="1">
+    <row r="87" spans="2:5" ht="14.45" customHeight="1">
       <c r="B87" t="s">
         <v>131</v>
       </c>
@@ -3594,7 +3663,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="14.4" customHeight="1">
+    <row r="88" spans="2:5" ht="14.45" customHeight="1">
       <c r="C88" t="s">
         <v>134</v>
       </c>
@@ -3602,7 +3671,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="14.4" customHeight="1">
+    <row r="89" spans="2:5" ht="14.45" customHeight="1">
       <c r="C89" t="s">
         <v>136</v>
       </c>
@@ -3854,7 +3923,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="14.4" customHeight="1">
+    <row r="119" spans="1:5" ht="14.45" customHeight="1">
       <c r="B119" t="s">
         <v>30</v>
       </c>
@@ -3865,7 +3934,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="14.4" customHeight="1">
+    <row r="120" spans="1:5" ht="14.45" customHeight="1">
       <c r="C120" t="s">
         <v>189</v>
       </c>
@@ -3873,7 +3942,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="14.4" customHeight="1">
+    <row r="121" spans="1:5" ht="14.45" customHeight="1">
       <c r="C121" t="s">
         <v>191</v>
       </c>
@@ -3881,7 +3950,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="14.4" customHeight="1">
+    <row r="122" spans="1:5" ht="14.45" customHeight="1">
       <c r="C122" t="s">
         <v>193</v>
       </c>
@@ -3889,7 +3958,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="14.4" customHeight="1">
+    <row r="123" spans="1:5" ht="14.45" customHeight="1">
       <c r="C123" t="s">
         <v>195</v>
       </c>
@@ -3897,7 +3966,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="14.4" customHeight="1">
+    <row r="124" spans="1:5" ht="14.45" customHeight="1">
       <c r="C124" t="s">
         <v>125</v>
       </c>
@@ -3905,7 +3974,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="14.4" customHeight="1">
+    <row r="125" spans="1:5" ht="14.45" customHeight="1">
       <c r="C125" t="s">
         <v>127</v>
       </c>
@@ -3913,7 +3982,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="14.4" customHeight="1">
+    <row r="126" spans="1:5" ht="14.45" customHeight="1">
       <c r="C126" t="s">
         <v>129</v>
       </c>
@@ -4205,10 +4274,10 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4336,135 +4405,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="86.88671875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.88671875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="7"/>
-    <col min="5" max="5" width="12.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="86.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="7"/>
+    <col min="5" max="5" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="C1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="27">
+      <c r="A2" s="7" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="28.8">
-      <c r="A2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="27">
       <c r="B3" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="27">
+      <c r="A6" s="7" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="28.8">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="C6" s="7" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="27">
+      <c r="A8" s="7" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="28.8">
-      <c r="A8" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>342</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="7" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="28.8">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="27">
       <c r="A10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8">
+    <row r="12" spans="1:3" ht="27">
       <c r="A12" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="C12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="27">
+      <c r="A13" s="7" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.8">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>351</v>
-      </c>
       <c r="C13" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="43.2">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="40.5">
       <c r="A16" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>296</v>
@@ -4472,20 +4541,20 @@
     </row>
     <row r="17" spans="1:3">
       <c r="B17" s="7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>264</v>
@@ -4493,66 +4562,66 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="43.2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="40.5">
       <c r="A21" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C22" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="40.5">
+      <c r="A23" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="27">
+      <c r="A24" s="7" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="43.2">
-      <c r="A23" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="28.8">
-      <c r="A24" s="7" t="s">
+      <c r="B24" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="7" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28.8">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="27">
       <c r="A26" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="C26" s="7" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="27">
+      <c r="A28" s="7" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="28.8">
-      <c r="A28" s="7" t="s">
-        <v>365</v>
-      </c>
       <c r="B28" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>268</v>
@@ -4560,66 +4629,66 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>367</v>
-      </c>
       <c r="C30" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="E33" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="F33" s="8" t="s">
         <v>384</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>385</v>
       </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="B34" s="10" t="s">
         <v>386</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>387</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B35" s="10"/>
       <c r="C35" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D35" s="10"/>
       <c r="E35" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F35" s="10"/>
       <c r="G35" s="11"/>
@@ -4627,15 +4696,15 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D36" s="10"/>
       <c r="E36" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F36" s="10"/>
       <c r="G36" s="11"/>
@@ -4643,18 +4712,18 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B37" s="10" t="s">
         <v>395</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>396</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -4673,81 +4742,81 @@
       <selection activeCell="A6" sqref="A6:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" t="s">
         <v>380</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>381</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>382</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>383</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>384</v>
-      </c>
-      <c r="F6" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" t="s">
         <v>386</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>387</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>388</v>
-      </c>
-      <c r="F7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C8" t="s">
         <v>390</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
         <v>391</v>
-      </c>
-      <c r="E8" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" t="s">
         <v>393</v>
       </c>
-      <c r="C9" t="s">
-        <v>394</v>
-      </c>
       <c r="E9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B10" t="s">
         <v>395</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>396</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>397</v>
-      </c>
-      <c r="F10" t="s">
-        <v>398</v>
       </c>
     </row>
   </sheetData>
